--- a/downloaded_files/EPES305_Tutorial-35879.xlsx
+++ b/downloaded_files/EPES305_Tutorial-35879.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -66,7 +66,7 @@
     <x:t>احمد هشام محمد ابوالعزايم مختار</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Hesham Mohmed</x:t>
+    <x:t>Ahmed Hisham Muhammad Abu Al-Azayem, Mukhtar</x:t>
   </x:si>
   <x:si>
     <x:t>1210199</x:t>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Tamer Hassan Ali ElMowafy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد السيد ابو النصر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Waleed Elsayed Abo Elnasr</x:t>
   </x:si>
   <x:si>
     <x:t>1220328</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1113,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.9030490393</x:v>
+        <x:v>45923.2606973032</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.4653548958</x:v>
+        <x:v>45912.9030490393</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5410685185</x:v>
+        <x:v>45914.4653548958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45914.5410685185</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.6541982639</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.533668287</x:v>
+        <x:v>45912.6541982639</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1337,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45914.533668287</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45918.3285988079</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5414788542</x:v>
+        <x:v>45918.3285988079</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5201669329</x:v>
+        <x:v>45914.5414788542</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45914.5201669329</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5428409375</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45912.8913767361</x:v>
+        <x:v>45914.5428409375</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.892671331</x:v>
+        <x:v>45912.8913767361</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.9318603357</x:v>
+        <x:v>45912.892671331</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.8918398148</x:v>
+        <x:v>45912.9318603357</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5186259259</x:v>
+        <x:v>45912.8918398148</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.8902102199</x:v>
+        <x:v>45914.5186259259</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.892190544</x:v>
+        <x:v>45912.8902102199</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45912.892190544</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45914.4701871875</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Tutorial-35879.xlsx
+++ b/downloaded_files/EPES305_Tutorial-35879.xlsx
@@ -1762,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.5186259259</x:v>
+        <x:v>45923.7893665162</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>

--- a/downloaded_files/EPES305_Tutorial-35879.xlsx
+++ b/downloaded_files/EPES305_Tutorial-35879.xlsx
@@ -138,7 +138,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Fares Salaheldin Ahmed Fouad</x:t>
+    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220311</x:t>

--- a/downloaded_files/EPES305_Tutorial-35879.xlsx
+++ b/downloaded_files/EPES305_Tutorial-35879.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -328,6 +328,15 @@
   </x:si>
   <x:si>
     <x:t>YUSSEF MOHAMMED HUSSIEN MOHAMMED ABD ELHALIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45926.6592628819</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Industrial Instrumentation (EPES305) Location : [18103]18103-30-الجيزة الرئيسي Time : Thursday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/EPES305_Tutorial-35879.xlsx
+++ b/downloaded_files/EPES305_Tutorial-35879.xlsx
@@ -51,6 +51,15 @@
     <x:t>Ahmed Osama Shehata Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>4230141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود فريد على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mahmoud Fared Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230142</x:t>
   </x:si>
   <x:si>
@@ -121,15 +130,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Waleed Elsayed Abo Elnasr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو عماد صبحى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
   </x:si>
   <x:si>
     <x:t>2220009</x:t>
@@ -907,7 +907,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.8906941319</x:v>
+        <x:v>45927.4157517361</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -939,7 +939,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.4661326736</x:v>
+        <x:v>45912.8906941319</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -971,7 +971,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.5117128125</x:v>
+        <x:v>45914.4661326736</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1003,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.4666009607</x:v>
+        <x:v>45914.5117128125</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1035,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.4065581019</x:v>
+        <x:v>45914.4666009607</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1067,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.8957978819</x:v>
+        <x:v>45914.4065581019</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1099,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45916.7601003472</x:v>
+        <x:v>45912.8957978819</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1131,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45923.2606973032</x:v>
+        <x:v>45916.7601003472</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1163,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.9030490393</x:v>
+        <x:v>45923.2606973032</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>

--- a/downloaded_files/EPES305_Tutorial-35879.xlsx
+++ b/downloaded_files/EPES305_Tutorial-35879.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Alyeldeen Ahmed Gamal Aly Abdelmegid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر الوليد محمد السيد إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
     <x:t>1220186</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1131,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45916.7601003472</x:v>
+        <x:v>45930.4128716088</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1163,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45923.2606973032</x:v>
+        <x:v>45916.7601003472</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.4653548958</x:v>
+        <x:v>45923.2606973032</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.5410685185</x:v>
+        <x:v>45914.4653548958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45914.5410685185</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.6541982639</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.533668287</x:v>
+        <x:v>45912.6541982639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45914.533668287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45918.3285988079</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.5414788542</x:v>
+        <x:v>45918.3285988079</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5201669329</x:v>
+        <x:v>45914.5414788542</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45914.5201669329</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5428409375</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45912.8913767361</x:v>
+        <x:v>45914.5428409375</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.892671331</x:v>
+        <x:v>45912.8913767361</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.9318603357</x:v>
+        <x:v>45912.892671331</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.8918398148</x:v>
+        <x:v>45912.9318603357</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45923.7893665162</x:v>
+        <x:v>45912.8918398148</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.8902102199</x:v>
+        <x:v>45923.7893665162</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.892190544</x:v>
+        <x:v>45912.8902102199</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45912.892190544</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45926.6592628819</x:v>
+        <x:v>45914.4701871875</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45926.6592628819</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Tutorial-35879.xlsx
+++ b/downloaded_files/EPES305_Tutorial-35879.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Almoatassembellah ahmed hassan soliman ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد اشرف وفا محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled ashraf wafa mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210350</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1044,7 +1053,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.4666009607</x:v>
+        <x:v>45931.3096267361</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1076,7 +1085,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.4065581019</x:v>
+        <x:v>45914.4666009607</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1108,7 +1117,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.8957978819</x:v>
+        <x:v>45914.4065581019</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1140,7 +1149,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45930.4128716088</x:v>
+        <x:v>45912.8957978819</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1181,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45916.7601003472</x:v>
+        <x:v>45930.4128716088</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1204,7 +1213,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45923.2606973032</x:v>
+        <x:v>45916.7601003472</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1236,7 +1245,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.4653548958</x:v>
+        <x:v>45923.2606973032</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1277,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.5410685185</x:v>
+        <x:v>45914.4653548958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1309,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45914.5410685185</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1341,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1373,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.6541982639</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1405,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.533668287</x:v>
+        <x:v>45912.6541982639</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45914.533668287</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.4875963773</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45918.3285988079</x:v>
+        <x:v>45914.4875963773</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.5414788542</x:v>
+        <x:v>45918.3285988079</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5201669329</x:v>
+        <x:v>45914.5414788542</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45914.5201669329</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5428409375</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.8913767361</x:v>
+        <x:v>45914.5428409375</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.892671331</x:v>
+        <x:v>45912.8913767361</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.9318603357</x:v>
+        <x:v>45912.892671331</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.8918398148</x:v>
+        <x:v>45912.9318603357</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45923.7893665162</x:v>
+        <x:v>45912.8918398148</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.8902102199</x:v>
+        <x:v>45923.7893665162</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.892190544</x:v>
+        <x:v>45912.8902102199</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45912.892190544</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45926.6592628819</x:v>
+        <x:v>45914.4701871875</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45926.6592628819</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES305_Tutorial-35879.xlsx
+++ b/downloaded_files/EPES305_Tutorial-35879.xlsx
@@ -156,7 +156,7 @@
     <x:t>فارس صلاح الدين احمد فؤاد حسنين حسن</x:t>
   </x:si>
   <x:si>
-    <x:t>Faris Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
+    <x:t>Fares Salah El-Din Ahmed Fouad Hassanein Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220311</x:t>
